--- a/Lecture03_auto.xlsx
+++ b/Lecture03_auto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\OneDrive\Documents\Private\Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -138,12 +138,6 @@
   </si>
   <si>
     <t>Birth_date</t>
-  </si>
-  <si>
-    <t>Дата рождения</t>
-  </si>
-  <si>
-    <t>Отчетсво</t>
   </si>
   <si>
     <t>Passport_ser</t>
@@ -372,6 +366,12 @@
   </si>
   <si>
     <t>Сотрудник создавший</t>
+  </si>
+  <si>
+    <t>Отчество</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1006,7 @@
         <xdr:cNvPr id="3" name="Прямая соединительная линия 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF184FA6-7C88-8947-A6AF-1FE74CFFE2FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF184FA6-7C88-8947-A6AF-1FE74CFFE2FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1061,7 +1061,7 @@
         <xdr:cNvPr id="5" name="Прямая соединительная линия 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF184FA6-7C88-8947-A6AF-1FE74CFFE2FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF184FA6-7C88-8947-A6AF-1FE74CFFE2FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1401,7 +1401,7 @@
   <dimension ref="A1:AE90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="74" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>1</v>
@@ -1543,7 +1543,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>22</v>
@@ -1766,7 +1766,7 @@
         <v>30</v>
       </c>
       <c r="P8" s="27" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1815,7 +1815,7 @@
         <v>8</v>
       </c>
       <c r="P9" s="27" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1855,7 +1855,7 @@
       <c r="K10" s="33"/>
       <c r="L10" s="5"/>
       <c r="M10" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N10" s="24" t="s">
         <v>6</v>
@@ -1864,7 +1864,7 @@
         <v>10</v>
       </c>
       <c r="P10" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1904,7 +1904,7 @@
       <c r="K11" s="33"/>
       <c r="L11" s="5"/>
       <c r="M11" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N11" s="24" t="s">
         <v>6</v>
@@ -1913,7 +1913,7 @@
         <v>20</v>
       </c>
       <c r="P11" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -1934,7 +1934,7 @@
     <row r="12" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="75" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C12" s="72"/>
       <c r="D12" s="73" t="s">
@@ -1944,7 +1944,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="76" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="33"/>
@@ -1953,7 +1953,7 @@
       <c r="K12" s="33"/>
       <c r="L12" s="1"/>
       <c r="M12" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N12" s="29" t="s">
         <v>6</v>
@@ -1962,7 +1962,7 @@
         <v>1</v>
       </c>
       <c r="P12" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -2253,7 +2253,7 @@
       <c r="F21" s="25"/>
       <c r="G21" s="18"/>
       <c r="H21" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -2329,7 +2329,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="18"/>
       <c r="H23" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I23" s="24" t="s">
         <v>22</v>
@@ -2338,7 +2338,7 @@
         <v>10</v>
       </c>
       <c r="K23" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -2370,7 +2370,7 @@
       <c r="F24" s="25"/>
       <c r="G24" s="18"/>
       <c r="H24" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I24" s="24" t="s">
         <v>6</v>
@@ -2379,7 +2379,7 @@
         <v>10</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -2411,7 +2411,7 @@
       <c r="F25" s="36"/>
       <c r="G25" s="18"/>
       <c r="H25" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I25" s="24" t="s">
         <v>6</v>
@@ -2420,7 +2420,7 @@
         <v>16</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2493,7 +2493,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="18"/>
       <c r="H27" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I27" s="24" t="s">
         <v>21</v>
@@ -2502,7 +2502,7 @@
         <v>8</v>
       </c>
       <c r="K27" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -2534,7 +2534,7 @@
       <c r="F28" s="33"/>
       <c r="G28" s="14"/>
       <c r="H28" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I28" s="24" t="s">
         <v>6</v>
@@ -2543,7 +2543,7 @@
         <v>30</v>
       </c>
       <c r="K28" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -2575,7 +2575,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I29" s="24" t="s">
         <v>23</v>
@@ -2584,7 +2584,7 @@
         <v>8</v>
       </c>
       <c r="K29" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -2616,7 +2616,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I30" s="24" t="s">
         <v>23</v>
@@ -2625,7 +2625,7 @@
         <v>8</v>
       </c>
       <c r="K30" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -2657,16 +2657,16 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J31" s="32">
         <v>10</v>
       </c>
       <c r="K31" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -2698,7 +2698,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I32" s="24" t="s">
         <v>22</v>
@@ -2739,7 +2739,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I33" s="35" t="s">
         <v>22</v>
@@ -2748,7 +2748,7 @@
         <v>10</v>
       </c>
       <c r="K33" s="36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -4767,22 +4767,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E3" s="45">
         <v>44155</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G3" s="43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H3" s="43">
         <v>2</v>
@@ -4818,22 +4818,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="44" t="s">
         <v>68</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>70</v>
       </c>
       <c r="E4" s="45">
         <v>44136</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H4" s="43">
         <v>2.2000000000000002</v>
@@ -4869,22 +4869,22 @@
         <v>5</v>
       </c>
       <c r="B5" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="44" t="s">
         <v>73</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>75</v>
       </c>
       <c r="E5" s="45">
         <v>25883</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H5" s="43">
         <v>1</v>
@@ -5247,13 +5247,13 @@
         <v>34</v>
       </c>
       <c r="F15" s="56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G15" s="56" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H15" s="56" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I15" s="57"/>
       <c r="J15" s="41"/>
@@ -5286,13 +5286,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="44" t="s">
         <v>78</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>80</v>
       </c>
       <c r="E16" s="45">
         <v>36544</v>
@@ -5304,7 +5304,7 @@
         <v>343434</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I16" s="46"/>
       <c r="J16" s="41"/>
@@ -5337,13 +5337,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="44" t="s">
         <v>82</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>84</v>
       </c>
       <c r="E17" s="45">
         <v>29738</v>
@@ -5355,7 +5355,7 @@
         <v>354345</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17" s="46"/>
       <c r="J17" s="41"/>
@@ -5388,13 +5388,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="44" t="s">
         <v>86</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>88</v>
       </c>
       <c r="E18" s="45">
         <v>25933</v>
@@ -5406,7 +5406,7 @@
         <v>312321</v>
       </c>
       <c r="H18" s="43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I18" s="46"/>
       <c r="J18" s="41"/>
@@ -5786,37 +5786,37 @@
     </row>
     <row r="29" spans="1:33" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A29" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="59" t="s">
         <v>46</v>
-      </c>
-      <c r="B29" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="59" t="s">
-        <v>48</v>
       </c>
       <c r="D29" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="59" t="s">
+      <c r="H29" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="59" t="s">
+      <c r="I29" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="H29" s="59" t="s">
+      <c r="J29" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="I29" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="J29" s="59" t="s">
-        <v>54</v>
-      </c>
       <c r="K29" s="60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L29" s="5"/>
       <c r="M29" s="1"/>
@@ -5846,19 +5846,19 @@
         <v>80</v>
       </c>
       <c r="B30" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="44" t="s">
         <v>89</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="44" t="s">
-        <v>91</v>
       </c>
       <c r="E30" s="43">
         <v>10000</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G30" s="45">
         <v>44174</v>
@@ -5903,19 +5903,19 @@
         <v>81</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E31" s="43">
         <v>50000</v>
       </c>
       <c r="F31" s="43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G31" s="45">
         <v>44174</v>
@@ -5960,19 +5960,19 @@
         <v>82</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E32" s="43">
         <v>50000</v>
       </c>
       <c r="F32" s="43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G32" s="45">
         <v>44539</v>
@@ -8669,7 +8669,7 @@
     <row r="2" spans="1:37" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -8683,7 +8683,7 @@
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
       <c r="N2" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
@@ -8767,7 +8767,7 @@
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>22</v>
@@ -8776,7 +8776,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="14"/>
@@ -8787,7 +8787,7 @@
       <c r="L4" s="14"/>
       <c r="M4" s="19"/>
       <c r="N4" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O4" s="24" t="s">
         <v>22</v>
@@ -8796,7 +8796,7 @@
         <v>10</v>
       </c>
       <c r="Q4" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="1"/>
@@ -8822,7 +8822,7 @@
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>6</v>
@@ -8831,7 +8831,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="14"/>
@@ -8842,7 +8842,7 @@
       <c r="L5" s="14"/>
       <c r="M5" s="19"/>
       <c r="N5" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O5" s="24" t="s">
         <v>22</v>
@@ -8851,7 +8851,7 @@
         <v>10</v>
       </c>
       <c r="Q5" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="1"/>
@@ -8877,7 +8877,7 @@
     <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>6</v>
@@ -8886,7 +8886,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="14"/>
@@ -8897,7 +8897,7 @@
       <c r="L6" s="14"/>
       <c r="M6" s="19"/>
       <c r="N6" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O6" s="24" t="s">
         <v>22</v>
@@ -8906,7 +8906,7 @@
         <v>10</v>
       </c>
       <c r="Q6" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="R6" s="5"/>
       <c r="S6" s="1"/>
@@ -8952,7 +8952,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="19"/>
       <c r="N7" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O7" s="24" t="s">
         <v>22</v>
@@ -8961,7 +8961,7 @@
         <v>10</v>
       </c>
       <c r="Q7" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="1"/>
@@ -8987,7 +8987,7 @@
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>21</v>
@@ -8996,7 +8996,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="14"/>
@@ -9042,7 +9042,7 @@
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>6</v>
@@ -9051,7 +9051,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="14"/>
@@ -9062,7 +9062,7 @@
       <c r="L9" s="14"/>
       <c r="M9" s="19"/>
       <c r="N9" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O9" s="24" t="s">
         <v>6</v>
@@ -9071,7 +9071,7 @@
         <v>20</v>
       </c>
       <c r="Q9" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="R9" s="5"/>
       <c r="S9" s="1"/>
@@ -9097,7 +9097,7 @@
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>24</v>
@@ -9106,7 +9106,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="14"/>
@@ -9117,7 +9117,7 @@
       <c r="L10" s="14"/>
       <c r="M10" s="19"/>
       <c r="N10" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O10" s="24" t="s">
         <v>21</v>
@@ -9126,7 +9126,7 @@
         <v>10</v>
       </c>
       <c r="Q10" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="R10" s="5"/>
       <c r="S10" s="1"/>
@@ -9152,7 +9152,7 @@
     <row r="11" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>24</v>
@@ -9161,7 +9161,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="14"/>
@@ -9172,16 +9172,16 @@
       <c r="L11" s="14"/>
       <c r="M11" s="19"/>
       <c r="N11" s="68" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O11" s="69" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P11" s="69">
         <v>10</v>
       </c>
       <c r="Q11" s="36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="R11" s="5"/>
       <c r="S11" s="1"/>
@@ -9207,16 +9207,16 @@
     <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" s="32">
         <v>10</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="14"/>
@@ -9254,7 +9254,7 @@
     <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>22</v>
@@ -9301,7 +9301,7 @@
     <row r="14" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>22</v>
@@ -9310,7 +9310,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="14"/>
